--- a/biology/Médecine/Artère_submentonnière/Artère_submentonnière.xlsx
+++ b/biology/Médecine/Artère_submentonnière/Artère_submentonnière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_submentonni%C3%A8re</t>
+          <t>Artère_submentonnière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère submentonnière (ou artère sous-mentale ou artère sous-mentonnière ou artère submentale) est une branche de l'artère faciale qui passe sous le menton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_submentonni%C3%A8re</t>
+          <t>Artère_submentonnière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère submentonnière est la plus grande des branches cervicales de l'artère faciale, émise juste au moment où ce vaisseau quitte la glande sous-maxillaire.
 elle avance sur la branche mylo-hyoïdienne de l'artère alvéolaire inférieure , juste en dessous du corps de la mandibule, et sous le muscle digastrique.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_submentonni%C3%A8re</t>
+          <t>Artère_submentonnière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Ramification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lorsque l'artère sous-mentale remonte vers le haut au-dessus du bord de la mandibule, elle se divise en une branche superficielle et une branche profonde.
 La branche superficielle passe entre le tégument et le muscle abaisseur de la lèvre inférieure inférieures, et s'anastomose avec l'artère labiale inférieure.
